--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/99/word_level_predictions_99.xlsx
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,289 +12693,289 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>19</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>19</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/99/word_level_predictions_99.xlsx
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,289 +12693,289 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
